--- a/2018-05-21 功能需求说明_01.xlsx
+++ b/2018-05-21 功能需求说明_01.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28695" windowHeight="12630" tabRatio="351"/>
   </bookViews>
@@ -552,7 +552,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,28 +608,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -637,16 +615,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,31 +645,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,7 +667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,6 +685,38 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,13 +752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -798,187 +791,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,15 +1099,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1141,6 +1125,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,15 +1196,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1211,10 +1204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,137 +1216,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,7 +1554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1582,7 +1575,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1958,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A1:CM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -2070,7 +2066,7 @@
       <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="83" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="54" t="s">
@@ -2098,7 +2094,7 @@
       <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="83" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -3044,6 +3040,7 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="13"/>
+      <c r="I64" s="77"/>
       <c r="L64" s="2"/>
       <c r="N64" s="2"/>
     </row>
@@ -3100,13 +3097,13 @@
       <c r="F68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="77" t="s">
+      <c r="G68" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="H68" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="I68" s="77" t="s">
+      <c r="H68" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="78" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3118,7 +3115,7 @@
       <c r="B70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="80" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3137,35 +3134,35 @@
     <row r="71" ht="18" customHeight="1" spans="1:7">
       <c r="A71" s="10"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="79"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="5"/>
       <c r="E71" s="46" t="s">
         <v>95</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="80"/>
+      <c r="G71" s="81"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:7">
       <c r="A72" s="10"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="79"/>
+      <c r="C72" s="80"/>
       <c r="D72" s="5"/>
       <c r="E72" s="46" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="80"/>
+      <c r="G72" s="81"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:7">
       <c r="A73" s="29"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="79"/>
+      <c r="C73" s="80"/>
       <c r="D73" s="5"/>
       <c r="E73" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="81"/>
+      <c r="G73" s="82"/>
     </row>
     <row r="74" ht="44.25" customHeight="1"/>
     <row r="75" ht="23.25" customHeight="1"/>
